--- a/2024/AmateursCTF 2024/AmateursCTF 2024.xlsx
+++ b/2024/AmateursCTF 2024/AmateursCTF 2024.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>challenge</t>
   </si>
@@ -40,6 +40,9 @@
     <t>amateursCTF{s0_m@ny_0ptions...}</t>
   </si>
   <si>
+    <t>.4084</t>
+  </si>
+  <si>
     <t>faked-onion</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>amateursCTF{l0l_d0nt_m4k3_kdf_and_ch3cksuM_the_s4m3}</t>
   </si>
   <si>
+    <t>rev/cplusplus</t>
+  </si>
+  <si>
     <t>amateursCTF{r/programminghorror/comments/18x7vk9/}</t>
   </si>
   <si>
@@ -200,6 +206,48 @@
   </si>
   <si>
     <t>amateursCTF{p0v_ac3ss_c0ntr0l_bypass_afd6e94d}</t>
+  </si>
+  <si>
+    <t>pwn/bearsay</t>
+  </si>
+  <si>
+    <t>amateursCTF{bearsay_mooooooooooooooooooo?}</t>
+  </si>
+  <si>
+    <t>pwn/heaps-of-fun</t>
+  </si>
+  <si>
+    <t>amateursCTF{did_you_have_fun?}</t>
+  </si>
+  <si>
+    <t>pwn/baby-sandbox</t>
+  </si>
+  <si>
+    <t>amateursCTF{surely_there_arent_any_more_ways_to_make_syscalls_right}</t>
+  </si>
+  <si>
+    <t>pwn/buffer-overflow</t>
+  </si>
+  <si>
+    <t>amateursCTF{i_love_unicodeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA}</t>
+  </si>
+  <si>
+    <t>pwn/reflection</t>
+  </si>
+  <si>
+    <t>amateursCTF{i_dont_know_how_but_they_found_me}</t>
+  </si>
+  <si>
+    <t>pwn/summit</t>
+  </si>
+  <si>
+    <t>amateursCTF{inspired_by_tmpout_vol_3_22}</t>
+  </si>
+  <si>
+    <t>misc/survey</t>
+  </si>
+  <si>
+    <t>amateursCTF{Thanks for playing!}</t>
   </si>
 </sst>
 </file>
@@ -233,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -241,6 +289,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -495,16 +546,16 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.4084</v>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -512,32 +563,32 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -545,32 +596,32 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
@@ -578,62 +629,62 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
@@ -641,10 +692,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -652,10 +703,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -663,32 +714,32 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -696,32 +747,32 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
@@ -729,18 +780,21 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -748,35 +802,112 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
